--- a/RGBJWMain/lianjietemplate.xlsx
+++ b/RGBJWMain/lianjietemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr saveExternalLinkValues="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CODE\newjw\jw\RGBJWMain\bin\Debug\net6.0-windows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\jw\RGBJWMain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2D7441-A3EC-475C-AC39-3ABA6F1A8741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5E6D3F9-BF3F-42F1-9DF3-AC89394262F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="767" xr2:uid="{ADFB192F-1810-438F-BE97-5A6F33D9E9C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="28300" tabRatio="767" xr2:uid="{ADFB192F-1810-438F-BE97-5A6F33D9E9C5}"/>
   </bookViews>
   <sheets>
     <sheet name="M12(注文用)" sheetId="43" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'M12(注文用)'!$A$1:$M$18</definedName>
   </definedNames>
   <calcPr calcId="181029" calcOnSave="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -307,28 +308,7 @@
       <t>テイシュツ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>ショルイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シュニク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>オウイン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ミサキ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>コウジョウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オク</t>
+      <t>ショルイシュニクオウインカクブミサキコウジョウオク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1099,13 +1079,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1117,21 +1118,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="11" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="11" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="11" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1153,35 +1139,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="11" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="11" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="11" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1478,78 +1458,78 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:H17"/>
+      <selection activeCell="E12" sqref="E12:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="22.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.36328125" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.6328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="4" customWidth="1"/>
-    <col min="9" max="9" width="2.75" style="4" customWidth="1"/>
-    <col min="10" max="11" width="10.625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="17.125" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="12.375" style="4"/>
+    <col min="9" max="9" width="2.7265625" style="4" customWidth="1"/>
+    <col min="10" max="11" width="10.6328125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.6328125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="17.08984375" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="12.36328125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A1" s="77"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="A1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="6" t="s">
         <v>21</v>
       </c>
@@ -1584,36 +1564,36 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="71"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="82" t="s">
+      <c r="F7" s="74"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="64" t="s">
         <v>2</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="74" t="s">
+      <c r="K7" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="75"/>
-      <c r="M7" s="76"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="58"/>
       <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:15" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="68"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
@@ -1632,7 +1612,7 @@
       <c r="G8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="83"/>
+      <c r="H8" s="65"/>
       <c r="J8" s="22" t="s">
         <v>12</v>
       </c>
@@ -1682,20 +1662,14 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="22.5" customHeight="1">
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="32">
-        <f>SUM(F10:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="33">
-        <f>SUM(G10:G10)</f>
-        <v>0</v>
-      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
       <c r="L11" s="34" t="s">
         <v>0</v>
       </c>
@@ -1704,16 +1678,16 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="22.5" customHeight="1">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62" t="s">
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="64"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="81"/>
       <c r="H12" s="46" t="s">
         <v>27</v>
       </c>
@@ -1735,51 +1709,51 @@
     </row>
     <row r="14" spans="1:15" ht="22.5" customHeight="1">
       <c r="A14" s="36"/>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
     </row>
     <row r="15" spans="1:15" ht="22.5" customHeight="1">
       <c r="A15" s="36"/>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
     </row>
     <row r="16" spans="1:15" ht="22.5" customHeight="1">
       <c r="A16" s="36"/>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
     </row>
     <row r="17" spans="1:9" ht="22.5" customHeight="1">
       <c r="A17" s="36"/>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
     </row>
     <row r="18" spans="1:9" ht="22.5" customHeight="1">
       <c r="A18" s="36"/>
@@ -1790,10 +1764,10 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:9" ht="22.5" customHeight="1">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="58"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="39" t="s">
         <v>23</v>
       </c>
@@ -1803,6 +1777,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:G7"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -1810,18 +1796,6 @@
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="N10">
@@ -1831,7 +1805,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="10" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;12㈱コーヨークリエイト</oddFooter>
   </headerFooter>
